--- a/QC14011 project Data.xlsx
+++ b/QC14011 project Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirsepehrghasedi/university/TA Term 7/QC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Semester 7\Quality Control\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4B1354-A578-CA48-810B-323D22039C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033E2366-2029-4B4A-BEAE-EA400DBA00D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{8B3A1635-F61E-494B-B325-32CFC36F0A8B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B3A1635-F61E-494B-B325-32CFC36F0A8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Group 1" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -277,10 +277,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -301,16 +301,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -318,6 +315,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,7 +625,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -633,67 +633,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7103A4A1-8246-514F-88BF-938B43B0BE80}">
-  <dimension ref="C1:AE34"/>
+  <dimension ref="C1:AE129"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AB24" sqref="AB24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="18" width="10.83203125" style="1"/>
-    <col min="19" max="19" width="20.83203125" style="1" customWidth="1"/>
-    <col min="20" max="21" width="10.83203125" style="1"/>
-    <col min="22" max="22" width="20.83203125" style="1" customWidth="1"/>
-    <col min="23" max="25" width="10.83203125" style="1"/>
-    <col min="26" max="26" width="20.83203125" style="1" customWidth="1"/>
-    <col min="27" max="29" width="10.83203125" style="1"/>
-    <col min="30" max="31" width="20.83203125" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="18" width="10.796875" style="1"/>
+    <col min="19" max="19" width="20.796875" style="1" customWidth="1"/>
+    <col min="20" max="21" width="10.796875" style="1"/>
+    <col min="22" max="22" width="20.796875" style="1" customWidth="1"/>
+    <col min="23" max="25" width="10.796875" style="1"/>
+    <col min="26" max="26" width="20.796875" style="1" customWidth="1"/>
+    <col min="27" max="29" width="10.796875" style="1"/>
+    <col min="30" max="31" width="20.796875" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:31" x14ac:dyDescent="0.4">
+    <row r="1" spans="3:31">
       <c r="AD1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="3:31" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="28" t="s">
+    <row r="2" spans="3:31" ht="19.95" customHeight="1">
+      <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="K2" s="28" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="K2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="O2" s="28" t="s">
+      <c r="L2" s="27"/>
+      <c r="O2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="R2" s="28" t="s">
+      <c r="P2" s="27"/>
+      <c r="R2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="28"/>
-      <c r="U2" s="28" t="s">
+      <c r="S2" s="27"/>
+      <c r="U2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="28"/>
-      <c r="Y2" s="27" t="s">
+      <c r="V2" s="27"/>
+      <c r="Y2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="27"/>
-      <c r="AC2" s="27" t="s">
+      <c r="Z2" s="26"/>
+      <c r="AC2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-    </row>
-    <row r="3" spans="3:31" ht="21" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="3:31" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+    </row>
+    <row r="3" spans="3:31" ht="15.6" thickBot="1"/>
+    <row r="4" spans="3:31" ht="15.6" thickBot="1">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -712,6 +712,9 @@
       <c r="H4" s="13">
         <v>5</v>
       </c>
+      <c r="I4" s="28">
+        <v>6</v>
+      </c>
       <c r="K4" s="4" t="s">
         <v>1</v>
       </c>
@@ -752,7 +755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="3:31" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:31" ht="15.6" thickBot="1">
       <c r="C5" s="8">
         <v>1</v>
       </c>
@@ -771,6 +774,9 @@
       <c r="H5" s="14">
         <v>15.914</v>
       </c>
+      <c r="I5" s="9">
+        <v>13.234999999999999</v>
+      </c>
       <c r="K5" s="10">
         <v>1</v>
       </c>
@@ -811,7 +817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="3:31" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:31" ht="15.6" thickBot="1">
       <c r="C6" s="8">
         <v>2</v>
       </c>
@@ -830,6 +836,9 @@
       <c r="H6" s="14">
         <v>16.109000000000002</v>
       </c>
+      <c r="I6" s="9">
+        <v>14.314</v>
+      </c>
       <c r="K6" s="10">
         <v>2</v>
       </c>
@@ -870,7 +879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="3:31" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:31" ht="15.6" thickBot="1">
       <c r="C7" s="8">
         <v>3</v>
       </c>
@@ -889,6 +898,9 @@
       <c r="H7" s="14">
         <v>15.673999999999999</v>
       </c>
+      <c r="I7" s="9">
+        <v>14.284000000000001</v>
+      </c>
       <c r="K7" s="10">
         <v>3</v>
       </c>
@@ -929,7 +941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="3:31" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:31" ht="15.6" thickBot="1">
       <c r="C8" s="8">
         <v>4</v>
       </c>
@@ -948,6 +960,9 @@
       <c r="H8" s="14">
         <v>15.507</v>
       </c>
+      <c r="I8" s="9">
+        <v>15.028</v>
+      </c>
       <c r="K8" s="10">
         <v>4</v>
       </c>
@@ -988,7 +1003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="3:31" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:31" ht="15.6" thickBot="1">
       <c r="C9" s="8">
         <v>5</v>
       </c>
@@ -1007,6 +1022,9 @@
       <c r="H9" s="14">
         <v>16.440999999999999</v>
       </c>
+      <c r="I9" s="9">
+        <v>15.603999999999999</v>
+      </c>
       <c r="K9" s="10">
         <v>5</v>
       </c>
@@ -1047,7 +1065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="3:31" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:31" ht="15.6" thickBot="1">
       <c r="C10" s="8">
         <v>6</v>
       </c>
@@ -1066,6 +1084,9 @@
       <c r="H10" s="14">
         <v>14.198</v>
       </c>
+      <c r="I10" s="9">
+        <v>15.955</v>
+      </c>
       <c r="K10" s="10">
         <v>6</v>
       </c>
@@ -1106,7 +1127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="3:31" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:31" ht="15.6" thickBot="1">
       <c r="C11" s="8">
         <v>7</v>
       </c>
@@ -1125,6 +1146,9 @@
       <c r="H11" s="14">
         <v>15.144</v>
       </c>
+      <c r="I11" s="9">
+        <v>16.274000000000001</v>
+      </c>
       <c r="K11" s="10">
         <v>7</v>
       </c>
@@ -1165,7 +1189,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="3:31" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:31" ht="15.6" thickBot="1">
       <c r="C12" s="8">
         <v>8</v>
       </c>
@@ -1184,6 +1208,9 @@
       <c r="H12" s="14">
         <v>15.519</v>
       </c>
+      <c r="I12" s="9">
+        <v>14.19</v>
+      </c>
       <c r="K12" s="10">
         <v>8</v>
       </c>
@@ -1224,7 +1251,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="3:31" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:31" ht="15.6" thickBot="1">
       <c r="C13" s="8">
         <v>9</v>
       </c>
@@ -1243,6 +1270,9 @@
       <c r="H13" s="14">
         <v>13.688000000000001</v>
       </c>
+      <c r="I13" s="9">
+        <v>13.884</v>
+      </c>
       <c r="K13" s="10">
         <v>9</v>
       </c>
@@ -1283,7 +1313,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="3:31" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:31" ht="15.6" thickBot="1">
       <c r="C14" s="8">
         <v>10</v>
       </c>
@@ -1302,6 +1332,9 @@
       <c r="H14" s="14">
         <v>15.22</v>
       </c>
+      <c r="I14" s="9">
+        <v>14.039</v>
+      </c>
       <c r="K14" s="10">
         <v>10</v>
       </c>
@@ -1342,7 +1375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="3:31" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:31" ht="15.6" thickBot="1">
       <c r="C15" s="8">
         <v>11</v>
       </c>
@@ -1361,6 +1394,9 @@
       <c r="H15" s="14">
         <v>14.180999999999999</v>
       </c>
+      <c r="I15" s="9">
+        <v>14.157999999999999</v>
+      </c>
       <c r="K15" s="10">
         <v>11</v>
       </c>
@@ -1392,7 +1428,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="3:31" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:31" ht="15.6" thickBot="1">
       <c r="C16" s="8">
         <v>12</v>
       </c>
@@ -1411,6 +1447,9 @@
       <c r="H16" s="14">
         <v>17.559000000000001</v>
       </c>
+      <c r="I16" s="9">
+        <v>15.821</v>
+      </c>
       <c r="K16" s="10">
         <v>12</v>
       </c>
@@ -1442,7 +1481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="3:26" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:26" ht="15.6" thickBot="1">
       <c r="C17" s="8">
         <v>13</v>
       </c>
@@ -1461,6 +1500,9 @@
       <c r="H17" s="14">
         <v>11.928000000000001</v>
       </c>
+      <c r="I17" s="9">
+        <v>12.859</v>
+      </c>
       <c r="K17" s="10">
         <v>13</v>
       </c>
@@ -1492,7 +1534,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="3:26" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:26" ht="15.6" thickBot="1">
       <c r="C18" s="8">
         <v>14</v>
       </c>
@@ -1511,6 +1553,9 @@
       <c r="H18" s="14">
         <v>14.968999999999999</v>
       </c>
+      <c r="I18" s="9">
+        <v>14.951000000000001</v>
+      </c>
       <c r="K18" s="10">
         <v>14</v>
       </c>
@@ -1542,7 +1587,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="3:26" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:26" ht="15.6" thickBot="1">
       <c r="C19" s="8">
         <v>15</v>
       </c>
@@ -1561,6 +1606,9 @@
       <c r="H19" s="14">
         <v>15.471</v>
       </c>
+      <c r="I19" s="9">
+        <v>13.589</v>
+      </c>
       <c r="K19" s="10">
         <v>15</v>
       </c>
@@ -1592,7 +1640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="3:26" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:26" ht="15.6" thickBot="1">
       <c r="C20" s="8">
         <v>16</v>
       </c>
@@ -1611,6 +1659,9 @@
       <c r="H20" s="14">
         <v>18.661999999999999</v>
       </c>
+      <c r="I20" s="9">
+        <v>15.747</v>
+      </c>
       <c r="K20" s="10">
         <v>16</v>
       </c>
@@ -1642,7 +1693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="3:26" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:26" ht="15.6" thickBot="1">
       <c r="C21" s="8">
         <v>17</v>
       </c>
@@ -1661,6 +1712,9 @@
       <c r="H21" s="14">
         <v>14.449</v>
       </c>
+      <c r="I21" s="9">
+        <v>13.68</v>
+      </c>
       <c r="K21" s="10">
         <v>17</v>
       </c>
@@ -1692,7 +1746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="3:26" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:26" ht="15.6" thickBot="1">
       <c r="C22" s="8">
         <v>18</v>
       </c>
@@ -1711,6 +1765,9 @@
       <c r="H22" s="14">
         <v>15.573</v>
       </c>
+      <c r="I22" s="9">
+        <v>14.163</v>
+      </c>
       <c r="K22" s="10">
         <v>18</v>
       </c>
@@ -1742,7 +1799,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="3:26" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:26" ht="15.6" thickBot="1">
       <c r="C23" s="8">
         <v>19</v>
       </c>
@@ -1761,6 +1818,9 @@
       <c r="H23" s="14">
         <v>17.247</v>
       </c>
+      <c r="I23" s="9">
+        <v>15.795999999999999</v>
+      </c>
       <c r="K23" s="10">
         <v>19</v>
       </c>
@@ -1792,7 +1852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="3:26" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:26" ht="15.6" thickBot="1">
       <c r="C24" s="8">
         <v>20</v>
       </c>
@@ -1811,6 +1871,9 @@
       <c r="H24" s="14">
         <v>17.600999999999999</v>
       </c>
+      <c r="I24" s="9">
+        <v>17.106000000000002</v>
+      </c>
       <c r="K24" s="10">
         <v>20</v>
       </c>
@@ -1842,7 +1905,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="3:26" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:26" ht="15.6" thickBot="1">
       <c r="C25" s="8">
         <v>21</v>
       </c>
@@ -1861,6 +1924,9 @@
       <c r="H25" s="14">
         <v>14.88</v>
       </c>
+      <c r="I25" s="9">
+        <v>14.371</v>
+      </c>
       <c r="O25" s="11">
         <v>21</v>
       </c>
@@ -1886,7 +1952,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="3:26" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:26" ht="15.6" thickBot="1">
       <c r="C26" s="8">
         <v>22</v>
       </c>
@@ -1905,6 +1971,9 @@
       <c r="H26" s="14">
         <v>14.72</v>
       </c>
+      <c r="I26" s="9">
+        <v>14.738</v>
+      </c>
       <c r="O26" s="11">
         <v>22</v>
       </c>
@@ -1930,7 +1999,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="3:26" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:26" ht="15.6" thickBot="1">
       <c r="C27" s="8">
         <v>23</v>
       </c>
@@ -1949,6 +2018,9 @@
       <c r="H27" s="14">
         <v>15.866</v>
       </c>
+      <c r="I27" s="9">
+        <v>15.917</v>
+      </c>
       <c r="O27" s="11">
         <v>23</v>
       </c>
@@ -1974,7 +2046,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="3:26" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:26" ht="15.6" thickBot="1">
       <c r="C28" s="8">
         <v>24</v>
       </c>
@@ -1993,6 +2065,9 @@
       <c r="H28" s="14">
         <v>15.53</v>
       </c>
+      <c r="I28" s="9">
+        <v>16.399000000000001</v>
+      </c>
       <c r="O28" s="11">
         <v>24</v>
       </c>
@@ -2018,7 +2093,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="3:26" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:26" ht="15.6" thickBot="1">
       <c r="C29" s="8">
         <v>25</v>
       </c>
@@ -2037,6 +2112,9 @@
       <c r="H29" s="14">
         <v>16.887</v>
       </c>
+      <c r="I29" s="9">
+        <v>15.797000000000001</v>
+      </c>
       <c r="O29" s="11">
         <v>25</v>
       </c>
@@ -2062,7 +2140,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="3:26" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:26" ht="15.6" thickBot="1">
+      <c r="I30" s="9">
+        <v>14.128</v>
+      </c>
       <c r="O30" s="11">
         <v>26</v>
       </c>
@@ -2088,7 +2169,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="3:26" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:26" ht="15.6" thickBot="1">
+      <c r="I31" s="9">
+        <v>13.592000000000001</v>
+      </c>
       <c r="O31" s="11">
         <v>27</v>
       </c>
@@ -2108,7 +2192,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="3:26" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:26" ht="15.6" thickBot="1">
+      <c r="I32" s="9">
+        <v>14.871</v>
+      </c>
       <c r="O32" s="11">
         <v>28</v>
       </c>
@@ -2128,7 +2215,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="15:19" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="9:19" ht="15.6" thickBot="1">
+      <c r="I33" s="9">
+        <v>16.352</v>
+      </c>
       <c r="O33" s="11">
         <v>29</v>
       </c>
@@ -2142,7 +2232,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="15:19" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="9:19" ht="15.6" thickBot="1">
+      <c r="I34" s="9">
+        <v>12.734999999999999</v>
+      </c>
       <c r="O34" s="11">
         <v>30</v>
       </c>
@@ -2154,6 +2247,481 @@
       </c>
       <c r="S34" s="14">
         <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="9:19" ht="15.6" thickBot="1">
+      <c r="I35" s="9">
+        <v>15.451000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="9:19" ht="15.6" thickBot="1">
+      <c r="I36" s="9">
+        <v>15.064</v>
+      </c>
+    </row>
+    <row r="37" spans="9:19" ht="15.6" thickBot="1">
+      <c r="I37" s="9">
+        <v>14.303000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="9:19" ht="15.6" thickBot="1">
+      <c r="I38" s="9">
+        <v>17.277000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="9:19" ht="15.6" thickBot="1">
+      <c r="I39" s="9">
+        <v>16.696999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="9:19" ht="15.6" thickBot="1">
+      <c r="I40" s="9">
+        <v>17.667000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="9:19" ht="15.6" thickBot="1">
+      <c r="I41" s="9">
+        <v>13.355</v>
+      </c>
+    </row>
+    <row r="42" spans="9:19" ht="15.6" thickBot="1">
+      <c r="I42" s="9">
+        <v>14.106</v>
+      </c>
+    </row>
+    <row r="43" spans="9:19" ht="15.6" thickBot="1">
+      <c r="I43" s="9">
+        <v>14.036</v>
+      </c>
+    </row>
+    <row r="44" spans="9:19" ht="15.6" thickBot="1">
+      <c r="I44" s="9">
+        <v>12.863</v>
+      </c>
+    </row>
+    <row r="45" spans="9:19" ht="15.6" thickBot="1">
+      <c r="I45" s="9">
+        <v>15.301</v>
+      </c>
+    </row>
+    <row r="46" spans="9:19" ht="15.6" thickBot="1">
+      <c r="I46" s="9">
+        <v>17.268999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="9:19" ht="15.6" thickBot="1">
+      <c r="I47" s="9">
+        <v>13.864000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="9:19" ht="15.6" thickBot="1">
+      <c r="I48" s="9">
+        <v>14.185</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I49" s="9">
+        <v>14.412000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I50" s="9">
+        <v>15.051</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I51" s="9">
+        <v>15.936</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I52" s="9">
+        <v>14.333</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I53" s="9">
+        <v>15.243</v>
+      </c>
+    </row>
+    <row r="54" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I54" s="9">
+        <v>13.663</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I55" s="9">
+        <v>16.744</v>
+      </c>
+    </row>
+    <row r="56" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I56" s="9">
+        <v>16.074999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I57" s="9">
+        <v>14.932</v>
+      </c>
+    </row>
+    <row r="58" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I58" s="9">
+        <v>13.840999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I59" s="9">
+        <v>15.265000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I60" s="9">
+        <v>13.574</v>
+      </c>
+    </row>
+    <row r="61" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I61" s="9">
+        <v>18.335999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I62" s="9">
+        <v>16.637</v>
+      </c>
+    </row>
+    <row r="63" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I63" s="9">
+        <v>15.355</v>
+      </c>
+    </row>
+    <row r="64" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I64" s="9">
+        <v>15.089</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I65" s="9">
+        <v>14.278</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I66" s="9">
+        <v>15.776999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I67" s="9">
+        <v>14.446999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I68" s="9">
+        <v>15.893000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I69" s="9">
+        <v>15.996</v>
+      </c>
+    </row>
+    <row r="70" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I70" s="9">
+        <v>15.170999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I71" s="9">
+        <v>13.957000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I72" s="9">
+        <v>13.057</v>
+      </c>
+    </row>
+    <row r="73" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I73" s="9">
+        <v>16.541</v>
+      </c>
+    </row>
+    <row r="74" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I74" s="9">
+        <v>12.361000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I75" s="9">
+        <v>13.484999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I76" s="9">
+        <v>16.582999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I77" s="9">
+        <v>15.551</v>
+      </c>
+    </row>
+    <row r="78" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I78" s="9">
+        <v>15.705</v>
+      </c>
+    </row>
+    <row r="79" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I79" s="9">
+        <v>16.239999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I80" s="9">
+        <v>14.573</v>
+      </c>
+    </row>
+    <row r="81" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I81" s="9">
+        <v>14.666</v>
+      </c>
+    </row>
+    <row r="82" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I82" s="9">
+        <v>14.324</v>
+      </c>
+    </row>
+    <row r="83" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I83" s="9">
+        <v>12.831</v>
+      </c>
+    </row>
+    <row r="84" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I84" s="9">
+        <v>14.363</v>
+      </c>
+    </row>
+    <row r="85" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I85" s="9">
+        <v>13.281000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I86" s="9">
+        <v>14.177</v>
+      </c>
+    </row>
+    <row r="87" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I87" s="9">
+        <v>16.067</v>
+      </c>
+    </row>
+    <row r="88" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I88" s="9">
+        <v>15.176</v>
+      </c>
+    </row>
+    <row r="89" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I89" s="9">
+        <v>14.627000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I90" s="9">
+        <v>15.928000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I91" s="9">
+        <v>13.98</v>
+      </c>
+    </row>
+    <row r="92" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I92" s="9">
+        <v>16.398</v>
+      </c>
+    </row>
+    <row r="93" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I93" s="9">
+        <v>16.457999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I94" s="9">
+        <v>12.497</v>
+      </c>
+    </row>
+    <row r="95" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I95" s="9">
+        <v>11.839</v>
+      </c>
+    </row>
+    <row r="96" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I96" s="9">
+        <v>15.013999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I97" s="9">
+        <v>16.21</v>
+      </c>
+    </row>
+    <row r="98" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I98" s="9">
+        <v>15.116</v>
+      </c>
+    </row>
+    <row r="99" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I99" s="9">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="100" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I100" s="9">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="101" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I101" s="9">
+        <v>14.973000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I102" s="9">
+        <v>15.295</v>
+      </c>
+    </row>
+    <row r="103" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I103" s="9">
+        <v>15.563000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I104" s="9">
+        <v>13.731999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I105" s="14">
+        <v>15.914</v>
+      </c>
+    </row>
+    <row r="106" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I106" s="14">
+        <v>16.109000000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I107" s="14">
+        <v>15.673999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I108" s="14">
+        <v>15.507</v>
+      </c>
+    </row>
+    <row r="109" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I109" s="14">
+        <v>16.440999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I110" s="14">
+        <v>14.198</v>
+      </c>
+    </row>
+    <row r="111" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I111" s="14">
+        <v>15.144</v>
+      </c>
+    </row>
+    <row r="112" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I112" s="14">
+        <v>15.519</v>
+      </c>
+    </row>
+    <row r="113" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I113" s="14">
+        <v>13.688000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I114" s="14">
+        <v>15.22</v>
+      </c>
+    </row>
+    <row r="115" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I115" s="14">
+        <v>14.180999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I116" s="14">
+        <v>17.559000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I117" s="14">
+        <v>11.928000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I118" s="14">
+        <v>14.968999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I119" s="14">
+        <v>15.471</v>
+      </c>
+    </row>
+    <row r="120" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I120" s="14">
+        <v>18.661999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I121" s="14">
+        <v>14.449</v>
+      </c>
+    </row>
+    <row r="122" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I122" s="14">
+        <v>15.573</v>
+      </c>
+    </row>
+    <row r="123" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I123" s="14">
+        <v>17.247</v>
+      </c>
+    </row>
+    <row r="124" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I124" s="14">
+        <v>17.600999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I125" s="14">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="126" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I126" s="14">
+        <v>14.72</v>
+      </c>
+    </row>
+    <row r="127" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I127" s="14">
+        <v>15.866</v>
+      </c>
+    </row>
+    <row r="128" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I128" s="14">
+        <v>15.53</v>
+      </c>
+    </row>
+    <row r="129" spans="9:9" ht="15.6" thickBot="1">
+      <c r="I129" s="14">
+        <v>16.887</v>
       </c>
     </row>
   </sheetData>
@@ -2172,71 +2740,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343A2B3A-6388-0E40-B786-54204893D6F2}">
-  <dimension ref="C2:AE35"/>
+  <dimension ref="C2:AE34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AE18" sqref="AE18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="19" width="10.83203125" style="22"/>
-    <col min="20" max="20" width="20.83203125" style="22" customWidth="1"/>
-    <col min="21" max="22" width="10.83203125" style="22"/>
-    <col min="23" max="23" width="20.83203125" style="22" customWidth="1"/>
-    <col min="24" max="25" width="10.83203125" style="22"/>
-    <col min="26" max="26" width="20.83203125" style="22" customWidth="1"/>
-    <col min="27" max="28" width="10.83203125" style="22"/>
-    <col min="29" max="29" width="20.83203125" style="22" customWidth="1"/>
-    <col min="30" max="16384" width="10.83203125" style="22"/>
+    <col min="1" max="19" width="10.796875" style="22"/>
+    <col min="20" max="20" width="20.796875" style="22" customWidth="1"/>
+    <col min="21" max="22" width="10.796875" style="22"/>
+    <col min="23" max="23" width="20.796875" style="22" customWidth="1"/>
+    <col min="24" max="25" width="10.796875" style="22"/>
+    <col min="26" max="26" width="20.796875" style="22" customWidth="1"/>
+    <col min="27" max="28" width="10.796875" style="22"/>
+    <col min="29" max="29" width="20.796875" style="22" customWidth="1"/>
+    <col min="30" max="16384" width="10.796875" style="22"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:31" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="28" t="s">
+    <row r="2" spans="3:31" ht="19.95" customHeight="1">
+      <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="28"/>
+      <c r="L2" s="27"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="28"/>
+      <c r="P2" s="27"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="28" t="s">
+      <c r="R2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="27" t="s">
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="27"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="27" t="s">
+      <c r="W2" s="26"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="27"/>
+      <c r="Z2" s="26"/>
       <c r="AA2" s="1"/>
-      <c r="AB2" s="27" t="s">
+      <c r="AB2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="26"/>
-    </row>
-    <row r="3" spans="3:31" ht="21" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="3:31" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="25"/>
+    </row>
+    <row r="3" spans="3:31" ht="15.6" thickBot="1"/>
+    <row r="4" spans="3:31" ht="15.6" thickBot="1">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2298,7 +2866,7 @@
       <c r="AD4" s="15"/>
       <c r="AE4" s="15"/>
     </row>
-    <row r="5" spans="3:31" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:31" ht="15.6" thickBot="1">
       <c r="C5" s="8">
         <v>1</v>
       </c>
@@ -2360,7 +2928,7 @@
       <c r="AD5" s="16"/>
       <c r="AE5" s="16"/>
     </row>
-    <row r="6" spans="3:31" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:31" ht="15.6" thickBot="1">
       <c r="C6" s="8">
         <v>2</v>
       </c>
@@ -2422,7 +2990,7 @@
       <c r="AD6" s="16"/>
       <c r="AE6" s="16"/>
     </row>
-    <row r="7" spans="3:31" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:31" ht="15.6" thickBot="1">
       <c r="C7" s="8">
         <v>3</v>
       </c>
@@ -2484,7 +3052,7 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="16"/>
     </row>
-    <row r="8" spans="3:31" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:31" ht="15.6" thickBot="1">
       <c r="C8" s="8">
         <v>4</v>
       </c>
@@ -2546,7 +3114,7 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="16"/>
     </row>
-    <row r="9" spans="3:31" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:31" ht="15.6" thickBot="1">
       <c r="C9" s="8">
         <v>5</v>
       </c>
@@ -2608,7 +3176,7 @@
       <c r="AD9" s="16"/>
       <c r="AE9" s="16"/>
     </row>
-    <row r="10" spans="3:31" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:31" ht="15.6" thickBot="1">
       <c r="C10" s="8">
         <v>6</v>
       </c>
@@ -2670,7 +3238,7 @@
       <c r="AD10" s="16"/>
       <c r="AE10" s="16"/>
     </row>
-    <row r="11" spans="3:31" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:31" ht="15.6" thickBot="1">
       <c r="C11" s="8">
         <v>7</v>
       </c>
@@ -2732,7 +3300,7 @@
       <c r="AD11" s="16"/>
       <c r="AE11" s="16"/>
     </row>
-    <row r="12" spans="3:31" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:31" ht="15.6" thickBot="1">
       <c r="C12" s="8">
         <v>8</v>
       </c>
@@ -2794,7 +3362,7 @@
       <c r="AD12" s="16"/>
       <c r="AE12" s="16"/>
     </row>
-    <row r="13" spans="3:31" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:31" ht="15.6" thickBot="1">
       <c r="C13" s="8">
         <v>9</v>
       </c>
@@ -2856,7 +3424,7 @@
       <c r="AD13" s="16"/>
       <c r="AE13" s="16"/>
     </row>
-    <row r="14" spans="3:31" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:31" ht="15.6" thickBot="1">
       <c r="C14" s="8">
         <v>10</v>
       </c>
@@ -2918,7 +3486,7 @@
       <c r="AD14" s="16"/>
       <c r="AE14" s="16"/>
     </row>
-    <row r="15" spans="3:31" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:31" ht="15.6" thickBot="1">
       <c r="C15" s="8">
         <v>11</v>
       </c>
@@ -2977,10 +3545,8 @@
       <c r="AC15" s="14">
         <v>8</v>
       </c>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-    </row>
-    <row r="16" spans="3:31" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="3:31" ht="15.6" thickBot="1">
       <c r="C16" s="8">
         <v>12</v>
       </c>
@@ -3040,7 +3606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="3:29" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:29" ht="15.6" thickBot="1">
       <c r="C17" s="8">
         <v>13</v>
       </c>
@@ -3100,7 +3666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="3:29" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:29" ht="15.6" thickBot="1">
       <c r="C18" s="8">
         <v>14</v>
       </c>
@@ -3160,7 +3726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="3:29" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:29" ht="15.6" thickBot="1">
       <c r="C19" s="8">
         <v>15</v>
       </c>
@@ -3220,7 +3786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="3:29" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:29" ht="15.6" thickBot="1">
       <c r="C20" s="8">
         <v>16</v>
       </c>
@@ -3280,7 +3846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:29" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:29" ht="15.6" thickBot="1">
       <c r="C21" s="8">
         <v>17</v>
       </c>
@@ -3340,7 +3906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:29" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:29" ht="15.6" thickBot="1">
       <c r="C22" s="8">
         <v>18</v>
       </c>
@@ -3400,7 +3966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="3:29" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:29" ht="15.6" thickBot="1">
       <c r="C23" s="8">
         <v>19</v>
       </c>
@@ -3460,7 +4026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="3:29" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:29" ht="15.6" thickBot="1">
       <c r="C24" s="8">
         <v>20</v>
       </c>
@@ -3520,7 +4086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="3:29" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:29" ht="15.6" thickBot="1">
       <c r="C25" s="8">
         <v>21</v>
       </c>
@@ -3568,7 +4134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="3:29" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:29" ht="15.6" thickBot="1">
       <c r="C26" s="8">
         <v>22</v>
       </c>
@@ -3616,7 +4182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="3:29" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:29" ht="15.6" thickBot="1">
       <c r="C27" s="8">
         <v>23</v>
       </c>
@@ -3664,7 +4230,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="3:29" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:29" ht="15.6" thickBot="1">
       <c r="C28" s="8">
         <v>24</v>
       </c>
@@ -3712,7 +4278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="3:29" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:29" ht="15.6" thickBot="1">
       <c r="C29" s="8">
         <v>25</v>
       </c>
@@ -3760,7 +4326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="3:29" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:29" ht="15.6" thickBot="1">
       <c r="O30" s="11">
         <v>26</v>
       </c>
@@ -3769,7 +4335,6 @@
       </c>
       <c r="R30" s="16"/>
       <c r="S30" s="16"/>
-      <c r="T30" s="23"/>
       <c r="U30" s="16"/>
       <c r="V30" s="10">
         <v>26</v>
@@ -3784,7 +4349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="3:29" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:29" ht="15.6" thickBot="1">
       <c r="O31" s="11">
         <v>27</v>
       </c>
@@ -3793,7 +4358,6 @@
       </c>
       <c r="R31" s="16"/>
       <c r="S31" s="16"/>
-      <c r="T31" s="23"/>
       <c r="U31" s="16"/>
       <c r="V31" s="10">
         <v>27</v>
@@ -3808,7 +4372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="3:29" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:29" ht="15.6" thickBot="1">
       <c r="O32" s="11">
         <v>28</v>
       </c>
@@ -3817,7 +4381,6 @@
       </c>
       <c r="R32" s="16"/>
       <c r="S32" s="16"/>
-      <c r="T32" s="23"/>
       <c r="U32" s="16"/>
       <c r="V32" s="10">
         <v>28</v>
@@ -3832,7 +4395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="15:23" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="15:23" ht="15.6" thickBot="1">
       <c r="O33" s="11">
         <v>29</v>
       </c>
@@ -3841,8 +4404,6 @@
       </c>
       <c r="R33" s="16"/>
       <c r="S33" s="16"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
       <c r="V33" s="10">
         <v>29</v>
       </c>
@@ -3850,7 +4411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="15:23" ht="21" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="15:23" ht="15.6" thickBot="1">
       <c r="O34" s="11">
         <v>30</v>
       </c>
@@ -3859,21 +4420,12 @@
       </c>
       <c r="R34" s="16"/>
       <c r="S34" s="16"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
       <c r="V34" s="10">
         <v>30</v>
       </c>
       <c r="W34" s="14">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="15:23" x14ac:dyDescent="0.4">
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/QC14011 project Data.xlsx
+++ b/QC14011 project Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Semester 7\Quality Control\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033E2366-2029-4B4A-BEAE-EA400DBA00D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322F2C8A-7B70-49BB-8918-46FDA62E1C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B3A1635-F61E-494B-B325-32CFC36F0A8B}"/>
+    <workbookView xWindow="1440" yWindow="1140" windowWidth="21600" windowHeight="11220" xr2:uid="{8B3A1635-F61E-494B-B325-32CFC36F0A8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Group 1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>نمونه ها</t>
   </si>
@@ -310,14 +310,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,7 +636,7 @@
   <dimension ref="C1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K5" sqref="K4:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15"/>
@@ -658,39 +658,39 @@
       </c>
     </row>
     <row r="2" spans="3:31" ht="19.95" customHeight="1">
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="K2" s="27" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="K2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="O2" s="27" t="s">
+      <c r="L2" s="28"/>
+      <c r="O2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="27"/>
-      <c r="R2" s="27" t="s">
+      <c r="P2" s="28"/>
+      <c r="R2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="27"/>
-      <c r="U2" s="27" t="s">
+      <c r="S2" s="28"/>
+      <c r="U2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="27"/>
-      <c r="Y2" s="26" t="s">
+      <c r="V2" s="28"/>
+      <c r="Y2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="26"/>
-      <c r="AC2" s="26" t="s">
+      <c r="Z2" s="27"/>
+      <c r="AC2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
     </row>
     <row r="3" spans="3:31" ht="15.6" thickBot="1"/>
     <row r="4" spans="3:31" ht="15.6" thickBot="1">
@@ -712,14 +712,14 @@
       <c r="H4" s="13">
         <v>5</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="26">
         <v>6</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>2</v>
+      <c r="L4" s="4">
+        <v>1</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>1</v>
@@ -2760,47 +2760,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:31" ht="19.95" customHeight="1">
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="27"/>
+      <c r="L2" s="28"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="27"/>
+      <c r="P2" s="28"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="23"/>
-      <c r="V2" s="26" t="s">
+      <c r="V2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="26"/>
+      <c r="W2" s="27"/>
       <c r="X2" s="24"/>
-      <c r="Y2" s="26" t="s">
+      <c r="Y2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="26"/>
+      <c r="Z2" s="27"/>
       <c r="AA2" s="1"/>
-      <c r="AB2" s="26" t="s">
+      <c r="AB2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AC2" s="26"/>
+      <c r="AC2" s="27"/>
       <c r="AD2" s="25"/>
     </row>
     <row r="3" spans="3:31" ht="15.6" thickBot="1"/>

--- a/QC14011 project Data.xlsx
+++ b/QC14011 project Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Semester 7\Quality Control\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322F2C8A-7B70-49BB-8918-46FDA62E1C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F03AAC-04D3-4F36-83FE-D7C9FA785409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="1140" windowWidth="21600" windowHeight="11220" xr2:uid="{8B3A1635-F61E-494B-B325-32CFC36F0A8B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
   <si>
     <t>نمونه ها</t>
   </si>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7103A4A1-8246-514F-88BF-938B43B0BE80}">
   <dimension ref="C1:AE129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K5" sqref="K4:L24"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15"/>
@@ -724,8 +724,8 @@
       <c r="O4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P4" s="5" t="s">
-        <v>2</v>
+      <c r="P4" s="5">
+        <v>1</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>1</v>

--- a/QC14011 project Data.xlsx
+++ b/QC14011 project Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Semester 7\Quality Control\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F03AAC-04D3-4F36-83FE-D7C9FA785409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F88A84-DF71-47F5-84F4-520256A6696D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="1140" windowWidth="21600" windowHeight="11220" xr2:uid="{8B3A1635-F61E-494B-B325-32CFC36F0A8B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Group 1" sheetId="1" r:id="rId1"/>
     <sheet name="Group 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>نمونه ها</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Question 5(Phase 2)</t>
   </si>
   <si>
-    <t>تعداد موارد تامنطبق در هر نمونه</t>
-  </si>
-  <si>
     <t>تعداد واحد بازرسی در نمونه</t>
   </si>
   <si>
@@ -80,6 +77,15 @@
   </si>
   <si>
     <t>تعداد موارد نامنطیق در هر نمونه</t>
+  </si>
+  <si>
+    <t>1_p</t>
+  </si>
+  <si>
+    <t>2_p</t>
+  </si>
+  <si>
+    <t>Question 4(Phase 2)</t>
   </si>
 </sst>
 </file>
@@ -635,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7103A4A1-8246-514F-88BF-938B43B0BE80}">
   <dimension ref="C1:AE129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15"/>
@@ -654,7 +660,7 @@
   <sheetData>
     <row r="1" spans="3:31">
       <c r="AD1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="3:31" ht="19.95" customHeight="1">
@@ -679,7 +685,7 @@
       </c>
       <c r="S2" s="28"/>
       <c r="U2" s="28" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="V2" s="28"/>
       <c r="Y2" s="27" t="s">
@@ -730,29 +736,35 @@
       <c r="R4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="S4" s="4" t="s">
-        <v>13</v>
+      <c r="S4" s="4">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="U4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="V4" s="4" t="s">
-        <v>13</v>
+      <c r="V4" s="4">
+        <v>2</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="Y4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AD4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE4" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="AE4" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="3:31" ht="15.6" thickBot="1">
@@ -795,11 +807,19 @@
       <c r="S5" s="14">
         <v>12</v>
       </c>
+      <c r="T5" s="1">
+        <f>S5/50</f>
+        <v>0.24</v>
+      </c>
       <c r="U5" s="10">
         <v>1</v>
       </c>
       <c r="V5" s="14">
         <v>12</v>
+      </c>
+      <c r="W5" s="1">
+        <f>V5/50</f>
+        <v>0.24</v>
       </c>
       <c r="Y5" s="12">
         <v>1</v>
@@ -857,11 +877,19 @@
       <c r="S6" s="14">
         <v>15</v>
       </c>
+      <c r="T6" s="1">
+        <f t="shared" ref="T6:T34" si="0">S6/50</f>
+        <v>0.3</v>
+      </c>
       <c r="U6" s="10">
         <v>2</v>
       </c>
       <c r="V6" s="14">
         <v>15</v>
+      </c>
+      <c r="W6" s="1">
+        <f t="shared" ref="W6:W34" si="1">V6/50</f>
+        <v>0.3</v>
       </c>
       <c r="Y6" s="12">
         <v>2</v>
@@ -919,11 +947,19 @@
       <c r="S7" s="14">
         <v>8</v>
       </c>
+      <c r="T7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
       <c r="U7" s="10">
         <v>3</v>
       </c>
       <c r="V7" s="14">
         <v>8</v>
+      </c>
+      <c r="W7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16</v>
       </c>
       <c r="Y7" s="12">
         <v>3</v>
@@ -981,11 +1017,19 @@
       <c r="S8" s="14">
         <v>10</v>
       </c>
+      <c r="T8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
       <c r="U8" s="10">
         <v>4</v>
       </c>
       <c r="V8" s="14">
         <v>10</v>
+      </c>
+      <c r="W8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="Y8" s="12">
         <v>4</v>
@@ -1043,11 +1087,19 @@
       <c r="S9" s="14">
         <v>4</v>
       </c>
+      <c r="T9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
       <c r="U9" s="10">
         <v>5</v>
       </c>
       <c r="V9" s="14">
         <v>4</v>
+      </c>
+      <c r="W9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
       </c>
       <c r="Y9" s="12">
         <v>5</v>
@@ -1105,11 +1157,19 @@
       <c r="S10" s="14">
         <v>7</v>
       </c>
+      <c r="T10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="U10" s="10">
         <v>6</v>
       </c>
       <c r="V10" s="14">
         <v>7</v>
+      </c>
+      <c r="W10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y10" s="12">
         <v>6</v>
@@ -1167,11 +1227,19 @@
       <c r="S11" s="14">
         <v>16</v>
       </c>
+      <c r="T11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
       <c r="U11" s="10">
         <v>7</v>
       </c>
       <c r="V11" s="14">
         <v>16</v>
+      </c>
+      <c r="W11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
       </c>
       <c r="Y11" s="12">
         <v>7</v>
@@ -1229,11 +1297,19 @@
       <c r="S12" s="14">
         <v>9</v>
       </c>
+      <c r="T12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
       <c r="U12" s="10">
         <v>8</v>
       </c>
       <c r="V12" s="14">
         <v>9</v>
+      </c>
+      <c r="W12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
       </c>
       <c r="Y12" s="12">
         <v>8</v>
@@ -1291,11 +1367,19 @@
       <c r="S13" s="14">
         <v>14</v>
       </c>
+      <c r="T13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
       <c r="U13" s="10">
         <v>9</v>
       </c>
       <c r="V13" s="14">
         <v>14</v>
+      </c>
+      <c r="W13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Y13" s="12">
         <v>9</v>
@@ -1353,11 +1437,19 @@
       <c r="S14" s="14">
         <v>10</v>
       </c>
+      <c r="T14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
       <c r="U14" s="10">
         <v>10</v>
       </c>
       <c r="V14" s="14">
         <v>10</v>
+      </c>
+      <c r="W14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="Y14" s="12">
         <v>10</v>
@@ -1415,11 +1507,19 @@
       <c r="S15" s="14">
         <v>5</v>
       </c>
+      <c r="T15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
       <c r="U15" s="10">
         <v>11</v>
       </c>
       <c r="V15" s="14">
         <v>5</v>
+      </c>
+      <c r="W15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
       </c>
       <c r="Y15" s="12">
         <v>11</v>
@@ -1468,11 +1568,19 @@
       <c r="S16" s="14">
         <v>6</v>
       </c>
+      <c r="T16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
       <c r="U16" s="10">
         <v>12</v>
       </c>
       <c r="V16" s="14">
         <v>6</v>
+      </c>
+      <c r="W16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
       </c>
       <c r="Y16" s="12">
         <v>12</v>
@@ -1521,11 +1629,19 @@
       <c r="S17" s="14">
         <v>17</v>
       </c>
+      <c r="T17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
       <c r="U17" s="10">
         <v>13</v>
       </c>
       <c r="V17" s="14">
         <v>17</v>
+      </c>
+      <c r="W17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.34</v>
       </c>
       <c r="Y17" s="12">
         <v>13</v>
@@ -1574,11 +1690,19 @@
       <c r="S18" s="14">
         <v>12</v>
       </c>
+      <c r="T18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
       <c r="U18" s="10">
         <v>14</v>
       </c>
       <c r="V18" s="14">
         <v>12</v>
+      </c>
+      <c r="W18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
       </c>
       <c r="Y18" s="12">
         <v>14</v>
@@ -1627,11 +1751,19 @@
       <c r="S19" s="14">
         <v>22</v>
       </c>
+      <c r="T19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.44</v>
+      </c>
       <c r="U19" s="10">
         <v>15</v>
       </c>
       <c r="V19" s="14">
         <v>8</v>
+      </c>
+      <c r="W19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16</v>
       </c>
       <c r="Y19" s="12">
         <v>15</v>
@@ -1680,11 +1812,19 @@
       <c r="S20" s="14">
         <v>8</v>
       </c>
+      <c r="T20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
       <c r="U20" s="10">
         <v>16</v>
       </c>
       <c r="V20" s="14">
         <v>10</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="Y20" s="12">
         <v>16</v>
@@ -1733,11 +1873,19 @@
       <c r="S21" s="14">
         <v>10</v>
       </c>
+      <c r="T21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
       <c r="U21" s="10">
         <v>17</v>
       </c>
       <c r="V21" s="14">
         <v>5</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
       </c>
       <c r="Y21" s="12">
         <v>17</v>
@@ -1786,11 +1934,19 @@
       <c r="S22" s="14">
         <v>5</v>
       </c>
+      <c r="T22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
       <c r="U22" s="10">
         <v>18</v>
       </c>
       <c r="V22" s="14">
         <v>13</v>
+      </c>
+      <c r="W22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
       </c>
       <c r="Y22" s="12">
         <v>18</v>
@@ -1839,11 +1995,19 @@
       <c r="S23" s="14">
         <v>13</v>
       </c>
+      <c r="T23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
       <c r="U23" s="10">
         <v>19</v>
       </c>
       <c r="V23" s="14">
         <v>11</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.22</v>
       </c>
       <c r="Y23" s="12">
         <v>19</v>
@@ -1892,11 +2056,19 @@
       <c r="S24" s="14">
         <v>11</v>
       </c>
+      <c r="T24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
       <c r="U24" s="10">
         <v>20</v>
       </c>
       <c r="V24" s="14">
         <v>20</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
       </c>
       <c r="Y24" s="12">
         <v>20</v>
@@ -1939,11 +2111,19 @@
       <c r="S25" s="14">
         <v>20</v>
       </c>
+      <c r="T25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
       <c r="U25" s="10">
         <v>21</v>
       </c>
       <c r="V25" s="14">
         <v>18</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
       </c>
       <c r="Y25" s="12">
         <v>21</v>
@@ -1986,11 +2166,19 @@
       <c r="S26" s="14">
         <v>18</v>
       </c>
+      <c r="T26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
       <c r="U26" s="10">
         <v>22</v>
       </c>
       <c r="V26" s="14">
         <v>15</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
       </c>
       <c r="Y26" s="12">
         <v>22</v>
@@ -2033,11 +2221,19 @@
       <c r="S27" s="14">
         <v>24</v>
       </c>
+      <c r="T27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
       <c r="U27" s="10">
         <v>23</v>
       </c>
       <c r="V27" s="14">
         <v>19</v>
+      </c>
+      <c r="W27" s="1">
+        <f t="shared" si="1"/>
+        <v>0.38</v>
       </c>
       <c r="Y27" s="12">
         <v>23</v>
@@ -2080,11 +2276,19 @@
       <c r="S28" s="14">
         <v>15</v>
       </c>
+      <c r="T28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
       <c r="U28" s="10">
         <v>24</v>
       </c>
       <c r="V28" s="14">
         <v>12</v>
+      </c>
+      <c r="W28" s="1">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
       </c>
       <c r="Y28" s="12">
         <v>24</v>
@@ -2127,11 +2331,19 @@
       <c r="S29" s="14">
         <v>19</v>
       </c>
+      <c r="T29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.38</v>
+      </c>
       <c r="U29" s="10">
         <v>25</v>
       </c>
       <c r="V29" s="14">
         <v>7</v>
+      </c>
+      <c r="W29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Y29" s="12">
         <v>25</v>
@@ -2156,11 +2368,19 @@
       <c r="S30" s="14">
         <v>12</v>
       </c>
+      <c r="T30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
       <c r="U30" s="10">
         <v>26</v>
       </c>
       <c r="V30" s="14">
         <v>13</v>
+      </c>
+      <c r="W30" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
       </c>
       <c r="Y30" s="12">
         <v>26</v>
@@ -2185,11 +2405,19 @@
       <c r="S31" s="14">
         <v>7</v>
       </c>
+      <c r="T31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
       <c r="U31" s="10">
         <v>27</v>
       </c>
       <c r="V31" s="14">
         <v>9</v>
+      </c>
+      <c r="W31" s="1">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
       </c>
     </row>
     <row r="32" spans="3:26" ht="15.6" thickBot="1">
@@ -2208,14 +2436,22 @@
       <c r="S32" s="14">
         <v>13</v>
       </c>
+      <c r="T32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
       <c r="U32" s="10">
         <v>28</v>
       </c>
       <c r="V32" s="14">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="9:19" ht="15.6" thickBot="1">
+      <c r="W32" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="33" spans="9:20" ht="15.6" thickBot="1">
       <c r="I33" s="9">
         <v>16.352</v>
       </c>
@@ -2231,8 +2467,12 @@
       <c r="S33" s="14">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="9:19" ht="15.6" thickBot="1">
+      <c r="T33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="34" spans="9:20" ht="15.6" thickBot="1">
       <c r="I34" s="9">
         <v>12.734999999999999</v>
       </c>
@@ -2248,73 +2488,77 @@
       <c r="S34" s="14">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="9:19" ht="15.6" thickBot="1">
+      <c r="T34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="35" spans="9:20" ht="15.6" thickBot="1">
       <c r="I35" s="9">
         <v>15.451000000000001</v>
       </c>
     </row>
-    <row r="36" spans="9:19" ht="15.6" thickBot="1">
+    <row r="36" spans="9:20" ht="15.6" thickBot="1">
       <c r="I36" s="9">
         <v>15.064</v>
       </c>
     </row>
-    <row r="37" spans="9:19" ht="15.6" thickBot="1">
+    <row r="37" spans="9:20" ht="15.6" thickBot="1">
       <c r="I37" s="9">
         <v>14.303000000000001</v>
       </c>
     </row>
-    <row r="38" spans="9:19" ht="15.6" thickBot="1">
+    <row r="38" spans="9:20" ht="15.6" thickBot="1">
       <c r="I38" s="9">
         <v>17.277000000000001</v>
       </c>
     </row>
-    <row r="39" spans="9:19" ht="15.6" thickBot="1">
+    <row r="39" spans="9:20" ht="15.6" thickBot="1">
       <c r="I39" s="9">
         <v>16.696999999999999</v>
       </c>
     </row>
-    <row r="40" spans="9:19" ht="15.6" thickBot="1">
+    <row r="40" spans="9:20" ht="15.6" thickBot="1">
       <c r="I40" s="9">
         <v>17.667000000000002</v>
       </c>
     </row>
-    <row r="41" spans="9:19" ht="15.6" thickBot="1">
+    <row r="41" spans="9:20" ht="15.6" thickBot="1">
       <c r="I41" s="9">
         <v>13.355</v>
       </c>
     </row>
-    <row r="42" spans="9:19" ht="15.6" thickBot="1">
+    <row r="42" spans="9:20" ht="15.6" thickBot="1">
       <c r="I42" s="9">
         <v>14.106</v>
       </c>
     </row>
-    <row r="43" spans="9:19" ht="15.6" thickBot="1">
+    <row r="43" spans="9:20" ht="15.6" thickBot="1">
       <c r="I43" s="9">
         <v>14.036</v>
       </c>
     </row>
-    <row r="44" spans="9:19" ht="15.6" thickBot="1">
+    <row r="44" spans="9:20" ht="15.6" thickBot="1">
       <c r="I44" s="9">
         <v>12.863</v>
       </c>
     </row>
-    <row r="45" spans="9:19" ht="15.6" thickBot="1">
+    <row r="45" spans="9:20" ht="15.6" thickBot="1">
       <c r="I45" s="9">
         <v>15.301</v>
       </c>
     </row>
-    <row r="46" spans="9:19" ht="15.6" thickBot="1">
+    <row r="46" spans="9:20" ht="15.6" thickBot="1">
       <c r="I46" s="9">
         <v>17.268999999999998</v>
       </c>
     </row>
-    <row r="47" spans="9:19" ht="15.6" thickBot="1">
+    <row r="47" spans="9:20" ht="15.6" thickBot="1">
       <c r="I47" s="9">
         <v>13.864000000000001</v>
       </c>
     </row>
-    <row r="48" spans="9:19" ht="15.6" thickBot="1">
+    <row r="48" spans="9:20" ht="15.6" thickBot="1">
       <c r="I48" s="9">
         <v>14.185</v>
       </c>
@@ -2842,26 +3086,26 @@
         <v>3</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U4" s="15"/>
       <c r="V4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB4" s="19" t="s">
         <v>1</v>
       </c>
       <c r="AC4" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD4" s="15"/>
       <c r="AE4" s="15"/>

--- a/QC14011 project Data.xlsx
+++ b/QC14011 project Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Semester 7\Quality Control\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F88A84-DF71-47F5-84F4-520256A6696D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5601A70A-1D26-4AF9-AB54-5FAD576898D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="1140" windowWidth="21600" windowHeight="11220" xr2:uid="{8B3A1635-F61E-494B-B325-32CFC36F0A8B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>نمونه ها</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Question 5(Phase 2)</t>
   </si>
   <si>
-    <t>تعداد واحد بازرسی در نمونه</t>
-  </si>
-  <si>
     <t>تعداد موارد نامنطبق در هر نمونه</t>
   </si>
   <si>
@@ -86,6 +83,12 @@
   </si>
   <si>
     <t>Question 4(Phase 2)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>ci</t>
   </si>
 </sst>
 </file>
@@ -641,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7103A4A1-8246-514F-88BF-938B43B0BE80}">
   <dimension ref="C1:AE129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15"/>
@@ -660,7 +663,7 @@
   <sheetData>
     <row r="1" spans="3:31">
       <c r="AD1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="3:31" ht="19.95" customHeight="1">
@@ -685,7 +688,7 @@
       </c>
       <c r="S2" s="28"/>
       <c r="U2" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V2" s="28"/>
       <c r="Y2" s="27" t="s">
@@ -740,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U4" s="4" t="s">
         <v>1</v>
@@ -749,22 +752,22 @@
         <v>2</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="7" t="s">
-        <v>14</v>
+      <c r="Z4" s="7">
+        <v>1</v>
       </c>
       <c r="AC4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="3:31" ht="15.6" thickBot="1">
@@ -888,7 +891,7 @@
         <v>15</v>
       </c>
       <c r="W6" s="1">
-        <f t="shared" ref="W6:W34" si="1">V6/50</f>
+        <f t="shared" ref="W6:W32" si="1">V6/50</f>
         <v>0.3</v>
       </c>
       <c r="Y6" s="12">
@@ -3086,26 +3089,26 @@
         <v>3</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U4" s="15"/>
       <c r="V4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB4" s="19" t="s">
         <v>1</v>
       </c>
       <c r="AC4" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD4" s="15"/>
       <c r="AE4" s="15"/>
